--- a/biology/Mycologie/Xerocomus_silwoodensis/Xerocomus_silwoodensis.xlsx
+++ b/biology/Mycologie/Xerocomus_silwoodensis/Xerocomus_silwoodensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet brun-rouge des peupliers, Bolet du Silwood
 Xerocomus silwoodensis, le Bolet brun-rouge des peupliers, est une espèce rare de champignon (Fungi) basidiomycète du genre Xerocomus dans la famille des Boletaceae. Il se caractérise par ses teintes rouges par rapport à d'autres Xerocomus, son pied souvent orné d'un réseau rougeâtre saillant et son habitat sous peupliers.
@@ -512,13 +524,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Xerocomus silwoodensis A.E. Hills, U. Eberhardt &amp; A.F.S. Taylor, 2007[1].
-Phylogénie
-L'analyse moléculaire a montré que l'espèce est étroitement liée à Xerocomus subtomentosus, et qu'elle a probablement été négligée auparavant en raison de son apparence similaire[2].
-Étymologie
-L'épithète spécifique silwoodensis est nommée d'après le Silwood Park, le campus de l'Imperial College London, d'où venaient les scientifiques ayant découvert l'espèce. Sa découverte a été classée comme la septième meilleure découverte d'une nouvelle espèce en 2008 par l'Institut international d'exploration des espèces[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Xerocomus silwoodensis A.E. Hills, U. Eberhardt &amp; A.F.S. Taylor, 2007.
 </t>
         </is>
       </c>
@@ -544,18 +554,129 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'analyse moléculaire a montré que l'espèce est étroitement liée à Xerocomus subtomentosus, et qu'elle a probablement été négligée auparavant en raison de son apparence similaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Xerocomus_silwoodensis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xerocomus_silwoodensis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique silwoodensis est nommée d'après le Silwood Park, le campus de l'Imperial College London, d'où venaient les scientifiques ayant découvert l'espèce. Sa découverte a été classée comme la septième meilleure découverte d'une nouvelle espèce en 2008 par l'Institut international d'exploration des espèces.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Xerocomus_silwoodensis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xerocomus_silwoodensis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l’hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques morphologiques de Xerocomus silwoodensis sont les suivantes :
-Son chapeau est finement tomenteux, brun-rouge à brun jaunâtre, à cuticule peu craquelée[3].
-L'hyménophore présente des pores jaunes à jaune d'or, immuables non bleuissants. Les tubes sont concolores aux pores[3].
-Son stipe est cylindrique à subclavé avec la base rétrécie à tendance radicante, il est orné d'un réseau rougeâtre net en relief au moins dans sa partie supérieure[3],[4].
-La chair est blanchâtre à la coupe, plus jaune dans le chapeau, parfois un peu plus sombre vers l'extrême base du pied. Son mycélium est blanchâtre à jaune pâle mais jamais jaune vif[3].
-Caractéristiques microscopiques
-Ses spores mesurent 9,5 à 14,5 µm x 4 à 5,5 µm[3]. Elles sont similaires à celles de Xerocomus chrysonemus mais nettement différentes de celles de Xerocomus subtomentosus et Xerocomus ferrugineus[5].
+Son chapeau est finement tomenteux, brun-rouge à brun jaunâtre, à cuticule peu craquelée.
+L'hyménophore présente des pores jaunes à jaune d'or, immuables non bleuissants. Les tubes sont concolores aux pores.
+Son stipe est cylindrique à subclavé avec la base rétrécie à tendance radicante, il est orné d'un réseau rougeâtre net en relief au moins dans sa partie supérieure,.
+La chair est blanchâtre à la coupe, plus jaune dans le chapeau, parfois un peu plus sombre vers l'extrême base du pied. Son mycélium est blanchâtre à jaune pâle mais jamais jaune vif.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Xerocomus_silwoodensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xerocomus_silwoodensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 9,5 à 14,5 µm x 4 à 5,5 µm. Elles sont similaires à celles de Xerocomus chrysonemus mais nettement différentes de celles de Xerocomus subtomentosus et Xerocomus ferrugineus.
 </t>
         </is>
       </c>
